--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Auto\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -249,11 +249,18 @@
     - Description
     - Sold out mark (if variation stock quantity = 0) ...</t>
   </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -605,11 +612,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -648,7 +655,9 @@
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -667,7 +676,9 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -686,7 +697,9 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -705,7 +718,9 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -724,7 +739,9 @@
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -743,7 +760,9 @@
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -762,7 +781,9 @@
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -781,7 +802,9 @@
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -800,7 +823,9 @@
       <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -819,7 +844,9 @@
       <c r="E11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -838,7 +865,9 @@
       <c r="E12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -857,7 +886,9 @@
       <c r="E13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -876,7 +907,9 @@
       <c r="E14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -895,7 +928,9 @@
       <c r="E15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -914,7 +949,9 @@
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -933,7 +970,9 @@
       <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -952,7 +991,9 @@
       <c r="E18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -971,7 +1012,9 @@
       <c r="E19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -990,7 +1033,9 @@
       <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -1009,7 +1054,9 @@
       <c r="E21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902E4BA-88DF-4DDF-AF47-69745606FD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE96673-127C-4611-941A-0AD470B15FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -249,18 +249,11 @@
     - Description
     - Sold out mark (if variation stock quantity = 0) ...</t>
   </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -612,11 +605,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -655,9 +648,6 @@
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -676,9 +666,6 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -697,9 +684,6 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -718,9 +702,6 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -739,9 +720,6 @@
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -760,9 +738,6 @@
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -781,9 +756,6 @@
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -802,9 +774,6 @@
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -823,9 +792,6 @@
       <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -844,9 +810,6 @@
       <c r="E11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -865,9 +828,6 @@
       <c r="E12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -886,9 +846,6 @@
       <c r="E13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -907,9 +864,6 @@
       <c r="E14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -928,9 +882,6 @@
       <c r="E15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -949,9 +900,6 @@
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -970,9 +918,6 @@
       <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -991,9 +936,6 @@
       <c r="E18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -1012,9 +954,6 @@
       <c r="E19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -1033,9 +972,6 @@
       <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -1053,9 +989,6 @@
       </c>
       <c r="E21" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
       </c>
       <c r="G21" s="2"/>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -249,11 +249,18 @@
     - Description
     - Sold out mark (if variation stock quantity = 0) ...</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -605,11 +612,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -648,6 +655,9 @@
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -666,6 +676,9 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -684,6 +697,9 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -702,6 +718,9 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -720,6 +739,9 @@
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -738,6 +760,9 @@
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -756,6 +781,9 @@
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -774,6 +802,9 @@
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -792,6 +823,9 @@
       <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -810,6 +844,9 @@
       <c r="E11" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -828,6 +865,9 @@
       <c r="E12" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -846,6 +886,9 @@
       <c r="E13" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -864,6 +907,9 @@
       <c r="E14" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -882,6 +928,9 @@
       <c r="E15" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -900,6 +949,9 @@
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -918,6 +970,9 @@
       <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -936,6 +991,9 @@
       <c r="E18" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
@@ -954,6 +1012,9 @@
       <c r="E19" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -972,6 +1033,9 @@
       <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
@@ -989,6 +1053,9 @@
       </c>
       <c r="E21" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
       </c>
       <c r="G21" s="2"/>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="58">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -908,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -929,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -992,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1055,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2"/>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE96673-127C-4611-941A-0AD470B15FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D42C2-E63F-4AD4-A9EB-A3ACC3AF86D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>Pre-condition</t>
@@ -255,12 +252,28 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Result VIE</t>
+  </si>
+  <si>
+    <t>Result ENG</t>
+  </si>
+  <si>
+    <t>1. Access +A2to product detail page by URL
+2. Check UI (All language)
+3. Check all product information:
+    - Product name
+    - Description
+    - Variation (if any)
+    - Listing, Selling price
+    - Branch name
+    - Buy now, Add to cart...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -352,13 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -612,452 +622,495 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -274,6 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -622,11 +623,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -853,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>55</v>
@@ -876,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>55</v>
@@ -899,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -922,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>55</v>
@@ -945,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -968,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -991,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1014,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1037,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -1060,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>55</v>
@@ -1083,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>55</v>
@@ -1106,7 +1107,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
         <v>55</v>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -669,10 +669,10 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -692,10 +692,10 @@
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -715,10 +715,10 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -738,10 +738,10 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -761,10 +761,10 @@
       <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -784,10 +784,10 @@
       <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -807,10 +807,10 @@
       <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -830,10 +830,10 @@
       <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -853,10 +853,10 @@
       <c r="E10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -876,10 +876,10 @@
       <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -899,10 +899,10 @@
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -922,10 +922,10 @@
       <c r="E13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -945,10 +945,10 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -968,10 +968,10 @@
       <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -991,10 +991,10 @@
       <c r="E16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -1014,10 +1014,10 @@
       <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -1037,10 +1037,10 @@
       <c r="E18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -1060,10 +1060,10 @@
       <c r="E19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -1083,10 +1083,10 @@
       <c r="E20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -1106,10 +1106,10 @@
       <c r="E21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>55</v>
       </c>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>55</v>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>55</v>

--- a/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_9536_Check to display if out of stock at product detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>55</v>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>55</v>
